--- a/py_work/excel/211115/a.xlsx
+++ b/py_work/excel/211115/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,345 +451,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>69</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" t="n">
         <v>2</v>
       </c>
     </row>

--- a/py_work/excel/211115/a.xlsx
+++ b/py_work/excel/211115/a.xlsx
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
